--- a/tools/soukankeisu.xlsx
+++ b/tools/soukankeisu.xlsx
@@ -21,10 +21,10 @@
     <t>終値</t>
   </si>
   <si>
-    <t>3か月　　　 相関係数</t>
+    <t>3か月相関係数</t>
   </si>
   <si>
-    <t>２年　　　　　相関係数</t>
+    <t>２年相関係数</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -95,13 +95,16 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,7 +324,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="9.1"/>
     <col customWidth="1" min="2" max="3" width="5.2"/>
-    <col customWidth="1" min="4" max="4" width="6.2"/>
+    <col customWidth="1" min="4" max="4" width="10.7"/>
     <col customWidth="1" min="5" max="26" width="6.1"/>
   </cols>
   <sheetData>
@@ -6157,7 +6160,7 @@
       <c r="C484" s="1">
         <v>53.0</v>
       </c>
-      <c r="D484" s="7"/>
+      <c r="D484" s="10"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="5">
@@ -6215,7 +6218,7 @@
       <c r="C489" s="1">
         <v>54.0</v>
       </c>
-      <c r="D489" s="7"/>
+      <c r="D489" s="10"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="5">
